--- a/需求分析/需求优先级/SRA2023-G20-用例优先级.xlsx
+++ b/需求分析/需求优先级/SRA2023-G20-用例优先级.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Endless\软件需求分析原理与实践\SRA2023-G20\需求分析\需求优先级\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD543C2F-1DF1-43C6-9E52-4A3863CD4C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBD8576-890C-4EEB-B979-1C9CD6096007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{21A5F11A-5C6C-4509-8B02-D646EAF76FE6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,443 +134,384 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>学生浏览课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查看课程介绍内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生浏览教师介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生下载文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生在资料下载页面将文件下载到本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查看我的课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生进入个人信息模块后，点击我的课程显示课程诸多信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生编辑个人基础信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生进入个人信息模块后，点击个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生修改密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生进入个人信息模块后，点击“修改密码”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生发布个人动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生进入个人信息模块后，点击个人动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在登录页面进行登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师浏览课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师查看课程介绍内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师浏览教师介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师下载文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师在资料下载页面将文件下载到本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师上传资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师更新课程信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师发布消息通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师查看我的课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师进入个人信息模块后，点击我的课程显示负责的课程信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师编辑个人基础信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师进入个人信息模块后，点击个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师修改密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师进入个人信息模块后，点击“修改密码”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师发布个人动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师进入个人信息模块后，点击个人动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员在登录页面进行登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员审核帖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员删除用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员查看用户列表，选择用户删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员修改密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员进入个人信息模块后，点击“修改密码”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生通过进入APP中的教师浏览界面查看教师介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师通过进入APP中的教师浏览界面查看教师介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师通过APP中的上传文件界面上传资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师通过APP中的课程信息更新界面更新课程信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师通过APP中的消息通知界面发布通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客用例 采用绿色</t>
+  </si>
+  <si>
+    <t>学生用例 采用蓝色</t>
+  </si>
+  <si>
+    <t>教师用例 采用紫色</t>
+  </si>
+  <si>
+    <t>管理员用例 采用黄色</t>
+  </si>
+  <si>
+    <t>图示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA2023-G20-用例优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生论坛检索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生发帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生参加帖子互动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生使用私聊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生登录后在论坛主页检索帖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生登录后在论坛页面发帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生登录后在论坛页面的帖子内点赞、收藏、评论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生登录后在其他用户的个人主页发起私聊，在聊天页面私聊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ST02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生浏览课程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生查看课程介绍内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生浏览教师介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生选课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生下载文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生在资料下载页面将文件下载到本地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生查看我的课程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入个人信息模块后，点击我的课程显示课程诸多信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生编辑个人基础信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入个人信息模块后，点击个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生修改密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入个人信息模块后，点击“修改密码”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生发布个人动态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入个人信息模块后，点击个人动态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生观看直播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生观看回放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ST12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流模块之论坛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入交流模块后，点击“论坛”即可进入论坛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流模块之私聊通道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生登录后在交流模块内的消息页面，点击聊天信息进入聊天页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流模块之分组协作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入交流模块后，依次点击“认证用户专属”、“分组协作”进入小组页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流模块之作业提交</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入交流模块后，依次点击“认证用户专属”、“作业提交”进入提交页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师在登录页面进行登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师浏览课程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师查看课程介绍内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师浏览教师介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师下载文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师在资料下载页面将文件下载到本地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师上传资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师更新课程信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师发布消息通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师查看我的课程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师进入个人信息模块后，点击我的课程显示负责的课程信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师编辑个人基础信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师进入个人信息模块后，点击个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师修改密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师进入个人信息模块后，点击“修改密码”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师发布个人动态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师进入个人信息模块后，点击个人动态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师观看直播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师观看回放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师进入交流模块后，点击“论坛”即可进入论坛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师登录后在交流模块内的消息页面，点击聊天信息进入聊天页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师进入交流模块后，依次点击“认证用户专属”、“分组协作”进入小组列表页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流模块之作业批改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师进入交流模块后，依次点击“认证用户专属”、“学生作业批改”进入作业列表页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员在登录页面进行登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员审核帖子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员删除用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员查看用户列表，选择用户删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员修改密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员进入个人信息模块后，点击“修改密码”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生通过进入APP中的教师浏览界面查看教师介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生通过APP中的课程界面选课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生通过APP中的直播回放页面观看直播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生通过APP中的直播回放页面观看回放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师通过进入APP中的教师浏览界面查看教师介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师通过APP中的上传文件界面上传资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师通过APP中的课程信息更新界面更新课程信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师通过APP中的消息通知界面发布通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师通过APP中的直播回放页面观看直播</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师通过APP中的直播回放页面观看回放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游客用例 采用绿色</t>
-  </si>
-  <si>
-    <t>学生用例 采用蓝色</t>
-  </si>
-  <si>
-    <t>教师用例 采用紫色</t>
-  </si>
-  <si>
-    <t>管理员用例 采用黄色</t>
-  </si>
-  <si>
-    <t>图示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高&gt;=1.66</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低&lt;=1.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.00&lt;中&lt;1.66</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRA2023-G20-用例优先级</t>
+  </si>
+  <si>
+    <t>教师论坛检索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师登录后在论坛主页检索帖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师发帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师登录后在论坛页面发帖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师参与帖子互动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师登录后在论坛页面的帖子内点赞、收藏、评论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师使用私聊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师登录后在其他用户的个人主页发起私聊，在聊天页面私聊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高&gt;=0.59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低&lt;=0.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31&lt;中&lt;0.59</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +713,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CDFBAF-1B50-41C6-89D2-1704FCA2929F}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1133,13 +1086,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,14 +1106,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="17">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>IF(D4&lt;=1,"低",IF(D4&lt;1.66,"中","高"))</f>
-        <v>低</v>
+        <f>IF(D4&lt;=0.31,"低",IF(D4&lt;0.59,"中","高"))</f>
+        <v>中</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,14 +1127,14 @@
         <v>7</v>
       </c>
       <c r="D5" s="17">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" ref="E5:E45" si="0">IF(D5&lt;=1,"低",IF(D5&lt;1.66,"中","高"))</f>
-        <v>低</v>
+        <f t="shared" ref="E5:E40" si="0">IF(D5&lt;=0.31,"低",IF(D5&lt;0.59,"中","高"))</f>
+        <v>中</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,14 +1148,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="17">
-        <v>0.67</v>
+        <v>0.21</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>IF(D6&lt;=1,"低",IF(D6&lt;1.66,"中","高"))</f>
+        <f t="shared" si="0"/>
         <v>低</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -1216,14 +1169,14 @@
         <v>11</v>
       </c>
       <c r="D7" s="17">
-        <v>0.67</v>
+        <v>0.21</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>低</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -1237,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="17">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1255,675 +1208,586 @@
         <v>25</v>
       </c>
       <c r="D9" s="18">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.63</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="18">
-        <v>1.34</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.31</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>低</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D11" s="18">
-        <v>1.34</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.31</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>低</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D12" s="18">
-        <v>1.17</v>
-      </c>
-      <c r="E12" s="4" t="str">
+        <v>0.45</v>
+      </c>
+      <c r="E12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>中</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="18">
-        <v>0.96</v>
-      </c>
-      <c r="E13" s="4" t="str">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>低</v>
       </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="str">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>低</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" s="18">
-        <v>1.4</v>
-      </c>
-      <c r="E15" s="4" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>中</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" s="18">
-        <v>0.81</v>
-      </c>
-      <c r="E16" s="4" t="str">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>低</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D17" s="18">
-        <v>0.74</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>低</v>
+        <v>1.32</v>
+      </c>
+      <c r="E17" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D18" s="18">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.66</v>
+      </c>
+      <c r="E18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D19" s="18">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.66</v>
+      </c>
+      <c r="E19" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="D20" s="18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E20" s="4" t="str">
+        <v>0.66</v>
+      </c>
+      <c r="E20" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.63</v>
+      </c>
+      <c r="E21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="E22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>低</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0.91</v>
-      </c>
-      <c r="E21" s="4" t="str">
+    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="E23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>低</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="18">
-        <v>1.07</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1.07</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D24" s="19">
-        <v>1.67</v>
-      </c>
-      <c r="E24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
+        <v>0.45</v>
+      </c>
+      <c r="E24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D25" s="19">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
+        <v>0.45</v>
+      </c>
+      <c r="E25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D26" s="19">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
+        <v>0.44</v>
+      </c>
+      <c r="E26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D27" s="19">
-        <v>1.44</v>
-      </c>
-      <c r="E27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.59</v>
+      </c>
+      <c r="E27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="D28" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="E28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>低</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="D29" s="19">
-        <v>2.69</v>
-      </c>
-      <c r="E29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
+        <v>0.37</v>
+      </c>
+      <c r="E29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="D30" s="19">
-        <v>1.7</v>
-      </c>
-      <c r="E30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D31" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="E31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.23</v>
+      </c>
+      <c r="E31" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>低</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D32" s="19">
-        <v>2.1</v>
-      </c>
-      <c r="E32" s="6" t="str">
+        <v>1.32</v>
+      </c>
+      <c r="E32" s="25" t="str">
         <f t="shared" si="0"/>
         <v>高</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D33" s="19">
-        <v>1.21</v>
-      </c>
-      <c r="E33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.66</v>
+      </c>
+      <c r="E33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D34" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
+        <v>0.66</v>
+      </c>
+      <c r="E34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>高</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D35" s="19">
-        <v>1.66</v>
-      </c>
-      <c r="E35" s="6" t="str">
+        <v>0.66</v>
+      </c>
+      <c r="E35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>高</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="19">
-        <v>1.66</v>
-      </c>
-      <c r="E36" s="6" t="str">
+      <c r="A36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1.04</v>
+      </c>
+      <c r="E36" s="26" t="str">
         <f t="shared" si="0"/>
         <v>高</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.87</v>
-      </c>
-      <c r="E37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>低</v>
+      <c r="A37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="19">
-        <v>1.56</v>
-      </c>
-      <c r="E38" s="6" t="str">
+      <c r="A38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E38" s="26" t="str">
         <f t="shared" si="0"/>
         <v>中</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="E39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
+      <c r="A39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="E39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>中</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="E40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="20">
-        <v>2.23</v>
-      </c>
-      <c r="E41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="20">
-        <v>1.43</v>
-      </c>
-      <c r="E42" s="8" t="str">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="26" t="str">
         <f t="shared" si="0"/>
         <v>中</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="20">
-        <v>2.14</v>
-      </c>
-      <c r="E43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="20">
-        <v>2.14</v>
-      </c>
-      <c r="E44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>高</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="20">
-        <v>1.62</v>
-      </c>
-      <c r="E45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>中</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="14"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
